--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="142">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t xml:space="preserve">B360-G Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mATX</t>
   </si>
   <si>
     <t xml:space="preserve">2/ 4</t>
@@ -623,10 +626,10 @@
   </sheetPr>
   <dimension ref="A1:BA32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AN1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AN1" activeCellId="0" sqref="AN1"/>
-      <selection pane="bottomLeft" activeCell="AW16" activeCellId="0" sqref="AW16"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -636,7 +639,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="11.01"/>
@@ -644,7 +647,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="2" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="2" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="2" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="12.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="27.68"/>
@@ -661,9 +664,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="12.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="10.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="12.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="13.69"/>
@@ -2142,7 +2145,7 @@
         <v>110</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>75</v>
@@ -2178,7 +2181,7 @@
         <v>95</v>
       </c>
       <c r="AC16" s="6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AE16" s="6" t="s">
         <v>65</v>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>54</v>
@@ -2228,12 +2231,21 @@
         <v>81</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>54</v>
@@ -2253,7 +2265,7 @@
     </row>
     <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>54</v>
@@ -2319,7 +2331,7 @@
         <v>59</v>
       </c>
       <c r="AE19" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF19" s="2" t="n">
         <v>1</v>
@@ -2363,7 +2375,7 @@
     </row>
     <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>54</v>
@@ -2467,7 +2479,7 @@
     </row>
     <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>54</v>
@@ -2562,7 +2574,7 @@
     </row>
     <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>54</v>
@@ -2654,7 +2666,7 @@
     </row>
     <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>54</v>
@@ -2669,7 +2681,7 @@
         <v>70</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>59</v>
@@ -2743,7 +2755,7 @@
     </row>
     <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>54</v>
@@ -2752,7 +2764,7 @@
         <v>109</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>58</v>
@@ -2760,7 +2772,7 @@
     </row>
     <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>54</v>
@@ -2769,7 +2781,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>81</v>
@@ -2808,7 +2820,7 @@
         <v>64</v>
       </c>
       <c r="AE25" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG25" s="2" t="n">
         <v>1</v>
@@ -2840,7 +2852,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>54</v>
@@ -2849,7 +2861,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>57</v>
@@ -2864,7 +2876,7 @@
         <v>60</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>4</v>
@@ -2914,7 +2926,7 @@
     </row>
     <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>54</v>
@@ -2923,7 +2935,7 @@
         <v>109</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>58</v>
@@ -2931,7 +2943,7 @@
     </row>
     <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>54</v>
@@ -2940,7 +2952,7 @@
         <v>74</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>58</v>
@@ -2948,7 +2960,7 @@
     </row>
     <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>54</v>
@@ -2957,7 +2969,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>57</v>
@@ -2968,7 +2980,7 @@
     </row>
     <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>54</v>
@@ -2977,7 +2989,7 @@
         <v>74</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>57</v>
@@ -2988,7 +3000,7 @@
     </row>
     <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>54</v>
@@ -2997,7 +3009,7 @@
         <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>58</v>
@@ -3005,7 +3017,7 @@
     </row>
     <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>54</v>
@@ -3014,7 +3026,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>58</v>

--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="143">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -117,6 +117,10 @@
     <t xml:space="preserve">Audio</t>
   </si>
   <si>
+    <t xml:space="preserve">PS/2
+K/ M</t>
+  </si>
+  <si>
     <t xml:space="preserve">USB2.0</t>
   </si>
   <si>
@@ -176,10 +180,6 @@
     <t xml:space="preserve">Thunderbolt Header</t>
   </si>
   <si>
-    <t xml:space="preserve">PS/2
-K/ M</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cpu_Opt
 Fan  </t>
   </si>
@@ -236,15 +236,15 @@
     <t xml:space="preserve">Realtek® ALC887 </t>
   </si>
   <si>
+    <t xml:space="preserve">1/ 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">2/ 0</t>
   </si>
   <si>
     <t xml:space="preserve">2/ 1/ 0</t>
   </si>
   <si>
-    <t xml:space="preserve">1/ 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">H310M-D</t>
   </si>
   <si>
@@ -435,6 +435,9 @@
   </si>
   <si>
     <t xml:space="preserve">TUF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/ 2</t>
   </si>
   <si>
     <t xml:space="preserve">H310-PLUS Gaming</t>
@@ -599,7 +602,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -624,12 +627,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BA32"/>
+  <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -639,7 +642,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="1" width="11.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="2" width="11.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="11.01"/>
@@ -651,28 +654,29 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="2" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="25" style="1" width="18.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="27.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="29" style="1" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="2" width="10.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="10.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="10.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="12.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="12.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="40" style="1" width="10.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="2" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="11.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="2" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="2" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="2" width="10.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="2" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="2" width="12.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="2" width="10.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="2" width="12.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="2" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="2" width="12.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="41" style="1" width="10.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="2" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="2" width="12.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="46" style="1" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="47" min="47" style="2" width="14.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="48" style="2" width="13.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="49" min="49" style="1" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="50" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="54" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="54" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -766,10 +770,10 @@
       <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
       <c r="AG1" s="3" t="s">
@@ -835,6 +839,7 @@
       <c r="BA1" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -877,41 +882,41 @@
       <c r="AA2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="6" t="s">
+      <c r="AC2" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="2" t="n">
-        <v>1</v>
+      <c r="AF2" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="AG2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AI2" s="2" t="n">
+      <c r="AH2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="6"/>
+      <c r="AN2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AS2" s="6"/>
-      <c r="AT2" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="AT2" s="6"/>
       <c r="AV2" s="2" t="n">
         <v>1</v>
       </c>
@@ -957,41 +962,41 @@
       <c r="AA3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE3" s="6" t="s">
+      <c r="AB3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AG3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="2" t="n">
+      <c r="AF3" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>59</v>
+      <c r="AN3" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AO3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="AR3" s="6"/>
+      <c r="AP3" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="AS3" s="6"/>
-      <c r="AT3" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="AT3" s="6"/>
       <c r="AV3" s="2" t="n">
         <v>1</v>
       </c>
@@ -1037,38 +1042,38 @@
       <c r="AA4" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AB4" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AC4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="AF4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="2" t="n">
+      <c r="AF4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="6"/>
+      <c r="AN4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AS4" s="6"/>
-      <c r="AT4" s="6" t="s">
-        <v>66</v>
-      </c>
+      <c r="AT4" s="6"/>
       <c r="AV4" s="2" t="n">
         <v>1</v>
       </c>
@@ -1113,42 +1118,42 @@
       <c r="AA5" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6" t="s">
+      <c r="AB5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF5" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AI5" s="2" t="n">
+      <c r="AH5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="6"/>
+      <c r="AN5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AS5" s="6"/>
-      <c r="AT5" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="AT5" s="6"/>
       <c r="AV5" s="2" t="n">
         <v>2</v>
       </c>
@@ -1196,37 +1201,37 @@
       <c r="AA6" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC6" s="6" t="s">
+      <c r="AC6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AE6" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF6" s="2" t="n">
-        <v>1</v>
+      <c r="AF6" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="AG6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AI6" s="2" t="n">
+      <c r="AH6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP6" s="2" t="n">
+      <c r="AN6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AQ6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AV6" s="2" t="n">
@@ -1279,35 +1284,35 @@
       <c r="AA7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB7" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AB7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD7" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2" t="n">
+      <c r="AF7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT7" s="6" t="s">
-        <v>66</v>
+      <c r="AN7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AV7" s="2" t="n">
         <v>1</v>
@@ -1365,43 +1370,43 @@
       <c r="AA8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC8" s="6" t="s">
+      <c r="AC8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD8" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF8" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF8" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH8" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ8" s="2" t="n">
+      <c r="AI8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>59</v>
+      <c r="AM8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AS8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT8" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AU8" s="2" t="n">
@@ -1472,31 +1477,31 @@
       <c r="AA9" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC9" s="6" t="s">
+      <c r="AC9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD9" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AE9" s="6" t="s">
+      <c r="AF9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF9" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ9" s="2" t="n">
+      <c r="AH9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP9" s="2" t="n">
+      <c r="AN9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AV9" s="2" t="n">
@@ -1561,32 +1566,32 @@
       <c r="AA10" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AB10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD10" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="AD10" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF10" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="AG10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="2" t="n">
-        <v>2</v>
+      <c r="AH10" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AK10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR10" s="6" t="s">
+      <c r="AM10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="AT10" s="6" t="s">
-        <v>66</v>
       </c>
       <c r="AU10" s="2" t="n">
         <v>1</v>
@@ -1671,31 +1676,31 @@
       <c r="AA11" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AB11" s="2" t="n">
+      <c r="AC11" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AC11" s="6" t="s">
+      <c r="AD11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AD11" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF11" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AG11" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AH11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ11" s="2" t="n">
+      <c r="AI11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL11" s="2" t="n">
+      <c r="AM11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AU11" s="2" t="n">
@@ -1772,34 +1777,34 @@
       <c r="AA12" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="AB12" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC12" s="6" t="s">
+      <c r="AC12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD12" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AD12" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF12" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="AG12" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AH12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ12" s="2" t="n">
+      <c r="AI12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR12" s="6" t="s">
+      <c r="AM12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="6" t="s">
         <v>60</v>
       </c>
       <c r="AU12" s="2" t="n">
@@ -1879,49 +1884,49 @@
       <c r="AA13" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB13" s="2" t="n">
+      <c r="AB13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC13" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AC13" s="6" t="s">
+      <c r="AD13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="AD13" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="AF13" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ13" s="2" t="n">
+      <c r="AI13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AP13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR13" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS13" s="6"/>
-      <c r="AT13" s="6" t="s">
-        <v>59</v>
-      </c>
+      <c r="AM13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AQ13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT13" s="6"/>
       <c r="AU13" s="2" t="n">
         <v>1</v>
       </c>
@@ -1993,28 +1998,28 @@
       <c r="AA14" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AC14" s="6" t="s">
+      <c r="AD14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AD14" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AG14" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AH14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ14" s="2" t="n">
-        <v>2</v>
+      <c r="AI14" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AK14" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL14" s="2" t="n">
+      <c r="AM14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AV14" s="2" t="n">
@@ -2076,43 +2081,43 @@
       <c r="AA15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB15" s="2" t="n">
+      <c r="AB15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC15" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AC15" s="6" t="s">
+      <c r="AD15" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="AD15" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="AF15" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ15" s="2" t="n">
+      <c r="AI15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR15" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT15" s="6" t="s">
+      <c r="AM15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS15" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AU15" s="2" t="n">
@@ -2180,31 +2185,31 @@
       <c r="AA16" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AC16" s="6" t="s">
+      <c r="AB16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD16" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="AE16" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF16" s="2" t="n">
-        <v>1</v>
+      <c r="AF16" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="AG16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ16" s="2" t="n">
+      <c r="AH16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR16" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT16" s="6" t="s">
+      <c r="AM16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS16" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AV16" s="2" t="n">
@@ -2233,14 +2238,77 @@
       <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="G17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>83</v>
+      </c>
+      <c r="N17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S17" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA17" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA17" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2257,10 +2325,76 @@
         <v>110</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z18" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA18" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD18" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="BA18" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2321,40 +2455,40 @@
       <c r="AA19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB19" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="6" t="s">
+      <c r="AC19" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AD19" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE19" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF19" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="AF19" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ19" s="2" t="n">
+      <c r="AI19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" s="6" t="s">
+      <c r="AM19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS19" s="6" t="s">
         <v>60</v>
       </c>
       <c r="AU19" s="2" t="n">
@@ -2425,40 +2559,40 @@
       <c r="AA20" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB20" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC20" s="6" t="s">
+      <c r="AC20" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="AD20" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="AE20" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF20" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF20" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AH20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ20" s="2" t="n">
+      <c r="AI20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="6" t="s">
+      <c r="AM20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="AU20" s="2" t="n">
@@ -2532,32 +2666,32 @@
       <c r="AA21" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB21" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC21" s="6" t="s">
+      <c r="AB21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD21" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AE21" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AG21" s="2" t="n">
-        <v>1</v>
+      <c r="AF21" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="AH21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ21" s="2" t="n">
+      <c r="AI21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="6" t="s">
-        <v>59</v>
+      <c r="AM21" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AU21" s="2" t="n">
         <v>1</v>
@@ -2624,35 +2758,35 @@
       <c r="AA22" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB22" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="6" t="s">
+      <c r="AB22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC22" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="AE22" s="6" t="s">
+      <c r="AF22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF22" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ22" s="2" t="n">
+      <c r="AH22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="6" t="s">
-        <v>59</v>
+      <c r="AM22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ22" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="AU22" s="2" t="n">
         <v>1</v>
@@ -2722,28 +2856,28 @@
       <c r="AA23" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="AB23" s="2" t="n">
+      <c r="AC23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AC23" s="6" t="s">
+      <c r="AD23" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="AE23" s="6" t="s">
+      <c r="AF23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="AG23" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AH23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ23" s="2" t="n">
+      <c r="AI23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="AL23" s="2" t="n">
+      <c r="AM23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AV23" s="2" t="n">
@@ -2766,13 +2900,103 @@
       <c r="D24" s="6" t="s">
         <v>130</v>
       </c>
+      <c r="E24" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F24" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q24" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S24" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T24" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y24" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z24" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF24" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV24" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW24" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>54</v>
@@ -2781,7 +3005,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>81</v>
@@ -2813,37 +3037,37 @@
       <c r="AA25" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB25" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE25" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="2" t="n">
+      <c r="AB25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC25" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF25" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AJ25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR25" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT25" s="6" t="s">
+      <c r="AN25" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS25" s="6" t="s">
         <v>59</v>
       </c>
       <c r="AV25" s="2" t="n">
@@ -2852,7 +3076,7 @@
     </row>
     <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>54</v>
@@ -2861,7 +3085,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>57</v>
@@ -2876,7 +3100,7 @@
         <v>60</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="S26" s="2" t="n">
         <v>4</v>
@@ -2887,38 +3111,38 @@
       <c r="AA26" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="AB26" s="2" t="n">
+      <c r="AB26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC26" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="AC26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE26" s="6" t="s">
+      <c r="AD26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF26" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="AF26" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="AG26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AJ26" s="2" t="n">
+      <c r="AH26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AK26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="AM26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT26" s="6" t="s">
-        <v>66</v>
+      <c r="AN26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS26" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="AV26" s="2" t="n">
         <v>1</v>
@@ -2926,7 +3150,7 @@
     </row>
     <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>54</v>
@@ -2935,15 +3159,105 @@
         <v>109</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA27" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD27" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV27" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW27" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>54</v>
@@ -2952,15 +3266,87 @@
         <v>74</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S28" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA28" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC28" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD28" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF28" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV28" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW28" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>54</v>
@@ -2969,18 +3355,81 @@
         <v>74</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>58</v>
+        <v>75</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S29" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA29" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC29" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF29" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV29" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>54</v>
@@ -2989,18 +3438,78 @@
         <v>74</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>57</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>58</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S30" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA30" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB30" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF30" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV30" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>54</v>
@@ -3009,15 +3518,96 @@
         <v>80</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="N31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD31" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AF31" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AV31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AX31" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>54</v>
@@ -3026,10 +3616,82 @@
         <v>80</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>58</v>
+        <v>82</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q32" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S32" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA32" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB32" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD32" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF32" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL32" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AM32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW32" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="149">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -471,6 +471,24 @@
   </si>
   <si>
     <t xml:space="preserve">Z370-PRO Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gigabyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 Aorus Gaming 3 Wi-Fi </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aorus Gaming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel® GbE Lan Chip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realtek® ALC1220-VB </t>
   </si>
 </sst>
 </file>
@@ -627,12 +645,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ32"/>
+  <dimension ref="A1:AMJ65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AM1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AM1" activeCellId="0" sqref="AM1"/>
+      <selection pane="bottomLeft" activeCell="AR49" activeCellId="0" sqref="AR49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3618,6 +3636,9 @@
       <c r="D32" s="6" t="s">
         <v>133</v>
       </c>
+      <c r="E32" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="F32" s="6" t="s">
         <v>82</v>
       </c>
@@ -3692,6 +3713,333 @@
       </c>
       <c r="AW32" s="6" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B37" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B38" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B39" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B42" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B43" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B45" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B46" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B47" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B48" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="O49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="R49" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="T49" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="W49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y49" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z49" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AA49" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS49" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW49" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B50" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B51" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B53" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B55" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B56" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B57" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B58" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B59" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B60" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B62" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B63" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B64" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B65" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -8,11 +8,12 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="intel" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="amd" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">工作表1!$A$1:$BJ$67</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">工作表1!$A$1:$BJ$32</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">intel!$A$1:$BL$67</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">intel!$A$1:$BL$32</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1384" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="227">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -224,10 +225,20 @@
 Header</t>
   </si>
   <si>
-    <t xml:space="preserve">JRGB 12V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JRGB 5V</t>
+    <t xml:space="preserve">5050
+JRGB 12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5050
+JRGB 5V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS2812B
+RGB LED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CORSAIR
+RGB LED</t>
   </si>
   <si>
     <t xml:space="preserve">Thunderbolt Header</t>
@@ -472,7 +483,7 @@
     <t xml:space="preserve">2/ 4333(O.C.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H370-Pro Gaming (Wi-Fi)</t>
+    <t xml:space="preserve">H370-PRO Gaming (Wi-Fi)</t>
   </si>
   <si>
     <t xml:space="preserve">TUF</t>
@@ -697,7 +708,31 @@
     <t xml:space="preserve">0, 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Z370 Gaming Pro Carbon AC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Performance Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Intel® Wireless-AC 8265  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intel® I219-V </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 KRAIT Gaming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370 Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370M Gaming Pro AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z370I Gaming Pro Carbon AC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2/ 4500(O.C.)</t>
   </si>
   <si>
     <t xml:space="preserve">Arsenal Gaming</t>
@@ -1107,12 +1142,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BR78"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AH1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="AH1" activeCellId="0" sqref="AH1"/>
-      <selection pane="bottomLeft" activeCell="AJ66" activeCellId="0" sqref="AJ66"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
+      <selection pane="bottomLeft" activeCell="U71" activeCellId="0" sqref="U71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1132,7 +1167,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="22" style="2" width="10.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="24" style="2" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="2" width="12.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="21.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="2" width="22.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="14.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="30" style="1" width="26.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="32" style="1" width="27.68"/>
@@ -1155,13 +1190,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="53" min="53" style="2" width="13.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="54" style="2" width="12.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="1" width="10.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="57" style="1" width="15.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="2" width="14.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="2" width="13.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="12.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="12.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="65" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="69" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="57" style="1" width="15.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="2" width="14.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="13.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="2" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="1" width="12.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="70" min="67" style="1" width="10.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="71" style="1" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1369,65 +1404,71 @@
       <c r="BP1" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="BQ1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U2" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="6"/>
       <c r="AF2" s="6"/>
       <c r="AG2" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="6"/>
       <c r="AI2" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK2" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM2" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN2" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO2" s="6"/>
       <c r="AP2" s="2" t="n">
@@ -1457,68 +1498,70 @@
       <c r="BF2" s="6"/>
       <c r="BG2" s="6"/>
       <c r="BH2" s="6"/>
-      <c r="BJ2" s="2" t="n">
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BL2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U3" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE3" s="6"/>
       <c r="AF3" s="6"/>
       <c r="AG3" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="6"/>
       <c r="AI3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK3" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM3" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN3" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO3" s="6"/>
       <c r="AQ3" s="2" t="n">
@@ -1537,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="AY3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AZ3" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BC3" s="6"/>
       <c r="BD3" s="6"/>
@@ -1548,68 +1591,70 @@
       <c r="BF3" s="6"/>
       <c r="BG3" s="6"/>
       <c r="BH3" s="6"/>
-      <c r="BJ3" s="2" t="n">
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BL3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M4" s="6"/>
       <c r="N4" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U4" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE4" s="6"/>
       <c r="AF4" s="6"/>
       <c r="AG4" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO4" s="6"/>
       <c r="AP4" s="2" t="n">
@@ -1636,68 +1681,70 @@
       <c r="BF4" s="6"/>
       <c r="BG4" s="6"/>
       <c r="BH4" s="6"/>
-      <c r="BJ4" s="2" t="n">
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BL4" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N5" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE5" s="6"/>
       <c r="AF5" s="6"/>
       <c r="AG5" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ5" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AL5" s="6"/>
       <c r="AM5" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO5" s="6"/>
       <c r="AP5" s="2" t="n">
@@ -1727,68 +1774,70 @@
       <c r="BF5" s="6"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="6"/>
-      <c r="BJ5" s="2" t="n">
+      <c r="BI5" s="6"/>
+      <c r="BJ5" s="6"/>
+      <c r="BL5" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N6" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R6" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S6" s="6"/>
       <c r="U6" s="2" t="n">
         <v>6</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE6" s="6"/>
       <c r="AF6" s="6"/>
       <c r="AG6" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH6" s="6"/>
       <c r="AJ6" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK6" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AM6" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN6" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO6" s="6"/>
       <c r="AP6" s="2" t="n">
@@ -1815,73 +1864,73 @@
       <c r="BB6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ6" s="2" t="n">
+      <c r="BL6" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL6" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP6" s="6" t="s">
-        <v>74</v>
+      <c r="BN6" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR6" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE7" s="6"/>
       <c r="AF7" s="6"/>
       <c r="AG7" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ7" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK7" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AM7" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN7" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO7" s="6"/>
       <c r="AP7" s="2" t="n">
@@ -1902,81 +1951,81 @@
       <c r="BA7" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ7" s="2" t="n">
+      <c r="BL7" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S8" s="6"/>
       <c r="U8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X8" s="7"/>
       <c r="AA8" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE8" s="6"/>
       <c r="AF8" s="6"/>
       <c r="AG8" s="6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH8" s="6"/>
       <c r="AJ8" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK8" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL8" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM8" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN8" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO8" s="6"/>
       <c r="AP8" s="2" t="n">
@@ -2001,70 +2050,72 @@
         <v>1</v>
       </c>
       <c r="BC8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BD8" s="6"/>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
       <c r="BG8" s="6"/>
-      <c r="BH8" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ8" s="2" t="n">
+      <c r="BH8" s="6"/>
+      <c r="BI8" s="6"/>
+      <c r="BJ8" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BK8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL8" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="BN8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BP8" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BR8" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U9" s="2" t="n">
         <v>4</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X9" s="7"/>
       <c r="Y9" s="2" t="n">
@@ -2074,25 +2125,25 @@
         <v>1</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE9" s="6"/>
       <c r="AF9" s="6"/>
       <c r="AG9" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH9" s="6"/>
       <c r="AJ9" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK9" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN9" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO9" s="6"/>
       <c r="AP9" s="2" t="n">
@@ -2113,56 +2164,56 @@
       <c r="BA9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ9" s="2" t="n">
+      <c r="BL9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL9" s="6" t="s">
-        <v>74</v>
+      <c r="BN9" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S10" s="6"/>
       <c r="U10" s="2" t="n">
         <v>4</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X10" s="7"/>
       <c r="Z10" s="2" t="n">
@@ -2172,28 +2223,28 @@
         <v>1</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
       <c r="AG10" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK10" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AL10" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="AN10" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO10" s="6"/>
       <c r="AQ10" s="2" t="n">
@@ -2209,74 +2260,76 @@
         <v>1</v>
       </c>
       <c r="BC10" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="BD10" s="6"/>
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
       <c r="BG10" s="6"/>
-      <c r="BI10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ10" s="2" t="n">
+      <c r="BH10" s="6"/>
+      <c r="BI10" s="6"/>
+      <c r="BK10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="BL10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM10" s="6" t="s">
-        <v>74</v>
+      <c r="BN10" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="BO10" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP10" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="BQ10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR10" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q11" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R11" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S11" s="6"/>
       <c r="U11" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W11" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X11" s="7"/>
       <c r="Y11" s="2" t="n">
@@ -2289,34 +2342,34 @@
         <v>1</v>
       </c>
       <c r="AB11" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC11" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD11" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE11" s="6"/>
       <c r="AF11" s="6"/>
       <c r="AG11" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AH11" s="6"/>
       <c r="AJ11" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK11" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL11" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM11" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN11" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO11" s="6"/>
       <c r="AQ11" s="2" t="n">
@@ -2334,68 +2387,68 @@
       <c r="AW11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BI11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ11" s="2" t="n">
+      <c r="BK11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="BL11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM11" s="6" t="s">
-        <v>74</v>
+      <c r="BN11" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="BO11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="BP11" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BQ11" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="BR11" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R12" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S12" s="6"/>
       <c r="U12" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X12" s="7"/>
       <c r="Z12" s="2" t="n">
@@ -2405,28 +2458,28 @@
         <v>1</v>
       </c>
       <c r="AD12" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE12" s="6"/>
       <c r="AF12" s="6"/>
       <c r="AG12" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AH12" s="6"/>
       <c r="AJ12" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK12" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL12" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM12" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN12" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO12" s="6"/>
       <c r="AQ12" s="2" t="n">
@@ -2445,59 +2498,61 @@
         <v>1</v>
       </c>
       <c r="BC12" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BD12" s="6"/>
       <c r="BE12" s="6"/>
       <c r="BF12" s="6"/>
       <c r="BG12" s="6"/>
-      <c r="BI12" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ12" s="2" t="n">
+      <c r="BH12" s="6"/>
+      <c r="BI12" s="6"/>
+      <c r="BK12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="BL12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM12" s="6" t="s">
-        <v>74</v>
+      <c r="BN12" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="BO12" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="BP12" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BQ12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR12" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -2505,17 +2560,17 @@
         <v>1</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R13" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S13" s="6"/>
       <c r="U13" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X13" s="7"/>
       <c r="Y13" s="2" t="n">
@@ -2525,31 +2580,31 @@
         <v>1</v>
       </c>
       <c r="AD13" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6"/>
       <c r="AG13" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ13" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK13" s="6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AL13" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN13" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO13" s="6"/>
       <c r="AP13" s="2" t="n">
@@ -2571,72 +2626,74 @@
         <v>1</v>
       </c>
       <c r="AY13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BA13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="BC13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BD13" s="6"/>
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
       <c r="BG13" s="6"/>
       <c r="BH13" s="6"/>
-      <c r="BI13" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ13" s="2" t="n">
+      <c r="BI13" s="6"/>
+      <c r="BJ13" s="6"/>
+      <c r="BK13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL13" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL13" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="BN13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BP13" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BR13" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N14" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q14" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R14" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S14" s="6"/>
       <c r="U14" s="2" t="n">
         <v>4</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X14" s="7"/>
       <c r="Y14" s="2" t="n">
@@ -2646,31 +2703,31 @@
         <v>1</v>
       </c>
       <c r="AB14" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC14" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD14" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE14" s="6"/>
       <c r="AF14" s="6"/>
       <c r="AG14" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH14" s="6"/>
       <c r="AK14" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL14" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM14" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN14" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO14" s="6"/>
       <c r="AQ14" s="2" t="n">
@@ -2688,49 +2745,49 @@
       <c r="AW14" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL14" s="6" t="s">
-        <v>74</v>
+      <c r="BL14" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN14" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q15" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R15" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S15" s="6"/>
       <c r="U15" s="2" t="n">
@@ -2743,31 +2800,31 @@
         <v>1</v>
       </c>
       <c r="AD15" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE15" s="6"/>
       <c r="AF15" s="6"/>
       <c r="AG15" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH15" s="6"/>
       <c r="AI15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ15" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK15" s="6" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AL15" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN15" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO15" s="6"/>
       <c r="AP15" s="2" t="n">
@@ -2792,64 +2849,66 @@
         <v>1</v>
       </c>
       <c r="BC15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BD15" s="6"/>
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
       <c r="BG15" s="6"/>
-      <c r="BI15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ15" s="2" t="n">
+      <c r="BH15" s="6"/>
+      <c r="BI15" s="6"/>
+      <c r="BK15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL15" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL15" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="BN15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BP15" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BR15" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q16" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R16" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="S16" s="6"/>
       <c r="U16" s="2" t="n">
@@ -2859,25 +2918,25 @@
         <v>1</v>
       </c>
       <c r="AD16" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE16" s="6"/>
       <c r="AF16" s="6"/>
       <c r="AG16" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK16" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AM16" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN16" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO16" s="6"/>
       <c r="AP16" s="2" t="n">
@@ -2896,55 +2955,57 @@
         <v>1</v>
       </c>
       <c r="BC16" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BD16" s="6"/>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
       <c r="BG16" s="6"/>
-      <c r="BJ16" s="2" t="n">
+      <c r="BH16" s="6"/>
+      <c r="BI16" s="6"/>
+      <c r="BL16" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL16" s="6" t="s">
-        <v>74</v>
+      <c r="BN16" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R17" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U17" s="2" t="n">
         <v>6</v>
@@ -2953,28 +3014,28 @@
         <v>1</v>
       </c>
       <c r="AD17" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE17" s="6"/>
       <c r="AF17" s="6"/>
       <c r="AG17" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ17" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK17" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AM17" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN17" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP17" s="2" t="n">
         <v>1</v>
@@ -2992,51 +3053,51 @@
         <v>1</v>
       </c>
       <c r="BC17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ17" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BK17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL17" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP17" s="6" t="s">
-        <v>74</v>
+      <c r="BN17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR17" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U18" s="2" t="n">
         <v>4</v>
@@ -3045,34 +3106,34 @@
         <v>1</v>
       </c>
       <c r="AB18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC18" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD18" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE18" s="6"/>
       <c r="AF18" s="6"/>
       <c r="AG18" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH18" s="6"/>
       <c r="AJ18" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK18" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM18" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN18" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ18" s="2" t="n">
         <v>1</v>
@@ -3089,93 +3150,93 @@
       <c r="AW18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP18" s="6" t="s">
-        <v>74</v>
+      <c r="BL18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR18" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S19" s="6"/>
       <c r="U19" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X19" s="7"/>
       <c r="AA19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC19" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD19" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE19" s="6"/>
       <c r="AF19" s="6"/>
       <c r="AG19" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH19" s="6"/>
       <c r="AJ19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK19" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AL19" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM19" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN19" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AO19" s="6"/>
       <c r="AP19" s="2" t="n">
@@ -3200,99 +3261,101 @@
         <v>1</v>
       </c>
       <c r="BC19" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BD19" s="6"/>
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
       <c r="BG19" s="6"/>
-      <c r="BI19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ19" s="2" t="n">
+      <c r="BH19" s="6"/>
+      <c r="BI19" s="6"/>
+      <c r="BK19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL19" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="BN19" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BP19" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BR19" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S20" s="6"/>
       <c r="U20" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X20" s="7"/>
       <c r="AA20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD20" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE20" s="6"/>
       <c r="AF20" s="6"/>
       <c r="AG20" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH20" s="6"/>
       <c r="AJ20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK20" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AL20" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM20" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN20" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO20" s="6"/>
       <c r="AP20" s="2" t="n">
@@ -3317,102 +3380,104 @@
         <v>1</v>
       </c>
       <c r="BC20" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BD20" s="6"/>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
       <c r="BG20" s="6"/>
-      <c r="BI20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ20" s="2" t="n">
+      <c r="BH20" s="6"/>
+      <c r="BI20" s="6"/>
+      <c r="BK20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL20" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL20" s="6" t="s">
-        <v>74</v>
-      </c>
       <c r="BN20" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BP20" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="BR20" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S21" s="6"/>
       <c r="U21" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X21" s="7"/>
       <c r="AA21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB21" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC21" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD21" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE21" s="6"/>
       <c r="AF21" s="6"/>
       <c r="AG21" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH21" s="6"/>
       <c r="AI21" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ21" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK21" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM21" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN21" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO21" s="6"/>
       <c r="AQ21" s="2" t="n">
@@ -3430,90 +3495,90 @@
       <c r="AW21" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BI21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ21" s="2" t="n">
+      <c r="BK21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL21" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BM21" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP21" s="6" t="s">
-        <v>74</v>
+      <c r="BO21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR21" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S22" s="6"/>
       <c r="U22" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X22" s="7"/>
       <c r="AA22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD22" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE22" s="6"/>
       <c r="AF22" s="6"/>
       <c r="AG22" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH22" s="6"/>
       <c r="AI22" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK22" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM22" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN22" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO22" s="6"/>
       <c r="AP22" s="2" t="n">
@@ -3534,53 +3599,53 @@
       <c r="BA22" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BI22" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="2" t="n">
+      <c r="BK22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL22" s="6" t="s">
-        <v>74</v>
+      <c r="BN22" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S23" s="6"/>
       <c r="U23" s="2" t="n">
         <v>4</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="2" t="n">
@@ -3593,31 +3658,31 @@
         <v>1</v>
       </c>
       <c r="AB23" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC23" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD23" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE23" s="6"/>
       <c r="AF23" s="6"/>
       <c r="AG23" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH23" s="6"/>
       <c r="AJ23" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK23" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM23" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN23" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO23" s="6"/>
       <c r="AQ23" s="2" t="n">
@@ -3635,55 +3700,55 @@
       <c r="AW23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ23" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP23" s="6" t="s">
-        <v>74</v>
+      <c r="BL23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR23" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q24" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U24" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W24" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y24" s="2" t="n">
         <v>1</v>
@@ -3692,37 +3757,37 @@
         <v>1</v>
       </c>
       <c r="AB24" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC24" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD24" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE24" s="6"/>
       <c r="AF24" s="6"/>
       <c r="AG24" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH24" s="6"/>
       <c r="AI24" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK24" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL24" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM24" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN24" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ24" s="2" t="n">
         <v>1</v>
@@ -3746,75 +3811,75 @@
         <v>1</v>
       </c>
       <c r="BC24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ24" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL24" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL24" s="6" t="s">
-        <v>74</v>
+      <c r="BN24" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q25" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U25" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD25" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE25" s="6"/>
       <c r="AF25" s="6"/>
       <c r="AG25" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH25" s="6"/>
       <c r="AI25" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ25" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK25" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM25" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AN25" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO25" s="6"/>
       <c r="AQ25" s="2" t="n">
@@ -3833,73 +3898,75 @@
         <v>1</v>
       </c>
       <c r="AY25" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BC25" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BD25" s="6"/>
       <c r="BE25" s="6"/>
       <c r="BF25" s="6"/>
       <c r="BG25" s="6"/>
-      <c r="BJ25" s="2" t="n">
+      <c r="BH25" s="6"/>
+      <c r="BI25" s="6"/>
+      <c r="BL25" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="U26" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD26" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE26" s="6"/>
       <c r="AF26" s="6"/>
       <c r="AG26" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH26" s="6"/>
       <c r="AI26" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ26" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK26" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM26" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN26" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO26" s="6"/>
       <c r="AP26" s="2" t="n">
@@ -3921,58 +3988,60 @@
         <v>1</v>
       </c>
       <c r="BC26" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BD26" s="6"/>
       <c r="BE26" s="6"/>
       <c r="BF26" s="6"/>
       <c r="BG26" s="6"/>
-      <c r="BJ26" s="2" t="n">
+      <c r="BH26" s="6"/>
+      <c r="BI26" s="6"/>
+      <c r="BL26" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q27" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R27" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U27" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="2" t="n">
         <v>1</v>
@@ -3981,34 +4050,34 @@
         <v>1</v>
       </c>
       <c r="AB27" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC27" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD27" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG27" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI27" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ27" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK27" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL27" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM27" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN27" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ27" s="2" t="n">
         <v>1</v>
@@ -4032,51 +4101,51 @@
         <v>1</v>
       </c>
       <c r="BC27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ27" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL27" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL27" s="6" t="s">
-        <v>74</v>
+      <c r="BN27" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q28" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R28" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U28" s="2" t="n">
         <v>6</v>
@@ -4085,25 +4154,25 @@
         <v>1</v>
       </c>
       <c r="AD28" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG28" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI28" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ28" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK28" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AM28" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN28" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ28" s="2" t="n">
         <v>1</v>
@@ -4124,75 +4193,75 @@
         <v>1</v>
       </c>
       <c r="BC28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ28" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL28" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL28" s="6" t="s">
-        <v>74</v>
+      <c r="BN28" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q29" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R29" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U29" s="2" t="n">
         <v>6</v>
       </c>
       <c r="AD29" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG29" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI29" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ29" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK29" s="6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AL29" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM29" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN29" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP29" s="2" t="n">
         <v>1</v>
@@ -4213,42 +4282,42 @@
         <v>1</v>
       </c>
       <c r="BC29" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ29" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL29" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U30" s="2" t="n">
         <v>6</v>
@@ -4257,25 +4326,25 @@
         <v>1</v>
       </c>
       <c r="AD30" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG30" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI30" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK30" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AM30" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN30" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP30" s="2" t="n">
         <v>1</v>
@@ -4296,39 +4365,39 @@
         <v>1</v>
       </c>
       <c r="BC30" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ30" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL30" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N31" s="2" t="n">
         <v>1</v>
@@ -4337,43 +4406,43 @@
         <v>1</v>
       </c>
       <c r="Q31" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R31" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U31" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W31" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD31" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG31" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI31" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ31" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK31" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AL31" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM31" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN31" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP31" s="2" t="n">
         <v>1</v>
@@ -4391,84 +4460,84 @@
         <v>1</v>
       </c>
       <c r="BC31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ31" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL31" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM31" s="6" t="s">
-        <v>74</v>
+      <c r="BN31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO31" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J32" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q32" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R32" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U32" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD32" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AG32" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI32" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ32" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK32" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AM32" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN32" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP32" s="2" t="n">
         <v>1</v>
@@ -4488,76 +4557,76 @@
       <c r="BA32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BI32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ32" s="2" t="n">
+      <c r="BK32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL32" s="6" t="s">
-        <v>74</v>
+      <c r="BN32" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M33" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q33" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD33" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG33" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ33" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK33" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN33" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ33" s="2" t="n">
         <v>1</v>
@@ -4575,63 +4644,63 @@
         <v>1</v>
       </c>
       <c r="AY33" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AZ33" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ33" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL33" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="E34" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U34" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD34" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG34" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI34" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ34" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK34" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM34" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN34" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AS34" s="2" t="n">
         <v>1</v>
@@ -4643,63 +4712,63 @@
         <v>3</v>
       </c>
       <c r="AY34" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AZ34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ34" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL34" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U35" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD35" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG35" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI35" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ35" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK35" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM35" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN35" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ35" s="2" t="n">
         <v>1</v>
@@ -4713,64 +4782,64 @@
       <c r="AU35" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="BJ35" s="2" t="n">
+      <c r="BL35" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E36" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q36" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U36" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD36" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG36" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI36" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ36" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK36" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM36" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN36" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ36" s="2" t="n">
         <v>1</v>
@@ -4788,66 +4857,66 @@
         <v>1</v>
       </c>
       <c r="BC36" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ36" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL36" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q37" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U37" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD37" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG37" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI37" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ37" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK37" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM37" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN37" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP37" s="2" t="n">
         <v>1</v>
@@ -4864,67 +4933,67 @@
       <c r="AU37" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="BJ37" s="2" t="n">
+      <c r="BL37" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M38" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U38" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AD38" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG38" s="6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AI38" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ38" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK38" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AM38" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN38" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP38" s="2" t="n">
         <v>1</v>
@@ -4942,7 +5011,7 @@
         <v>3</v>
       </c>
       <c r="AY38" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BA38" s="2" t="n">
         <v>1</v>
@@ -4950,37 +5019,37 @@
       <c r="BB38" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ38" s="2" t="n">
+      <c r="BL38" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N39" s="2" t="n">
         <v>1</v>
@@ -4989,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="Q39" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R39" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U39" s="2" t="n">
         <v>6</v>
@@ -5004,36 +5073,36 @@
         <v>1</v>
       </c>
       <c r="AB39" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC39" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD39" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE39" s="10"/>
       <c r="AF39" s="10"/>
       <c r="AG39" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI39" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ39" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK39" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL39" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM39" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN39" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP39" s="2" t="n">
         <v>1</v>
@@ -5054,51 +5123,51 @@
         <v>1</v>
       </c>
       <c r="BD39" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ39" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL39" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM39" s="6" t="s">
-        <v>74</v>
+      <c r="BN39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO39" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N40" s="2" t="n">
         <v>1</v>
@@ -5107,13 +5176,13 @@
         <v>1</v>
       </c>
       <c r="Q40" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R40" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T40" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U40" s="2" t="n">
         <v>6</v>
@@ -5122,28 +5191,28 @@
         <v>1</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG40" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI40" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ40" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK40" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL40" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM40" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN40" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP40" s="2" t="n">
         <v>1</v>
@@ -5164,51 +5233,51 @@
         <v>1</v>
       </c>
       <c r="BD40" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE40" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ40" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL40" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM40" s="6" t="s">
-        <v>74</v>
+      <c r="BN40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO40" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q41" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U41" s="2" t="n">
         <v>4</v>
@@ -5217,34 +5286,34 @@
         <v>1</v>
       </c>
       <c r="AB41" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC41" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD41" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG41" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI41" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK41" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL41" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM41" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN41" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ41" s="2" t="n">
         <v>1</v>
@@ -5259,54 +5328,54 @@
         <v>6</v>
       </c>
       <c r="BD41" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BE41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ41" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL41" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I42" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q42" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R42" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T42" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U42" s="2" t="n">
         <v>6</v>
@@ -5315,25 +5384,25 @@
         <v>1</v>
       </c>
       <c r="AD42" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG42" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI42" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ42" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK42" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM42" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN42" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP42" s="2" t="n">
         <v>1</v>
@@ -5354,42 +5423,42 @@
         <v>1</v>
       </c>
       <c r="BD42" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ42" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BL42" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I43" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N43" s="2" t="n">
         <v>1</v>
@@ -5398,13 +5467,13 @@
         <v>1</v>
       </c>
       <c r="Q43" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R43" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U43" s="2" t="n">
         <v>6</v>
@@ -5413,25 +5482,25 @@
         <v>1</v>
       </c>
       <c r="AD43" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG43" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI43" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK43" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AM43" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN43" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP43" s="2" t="n">
         <v>1</v>
@@ -5458,51 +5527,51 @@
         <v>1</v>
       </c>
       <c r="BC43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ43" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BJ43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL43" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q44" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U44" s="2" t="n">
         <v>6</v>
@@ -5511,28 +5580,28 @@
         <v>1</v>
       </c>
       <c r="AD44" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG44" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI44" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ44" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK44" s="6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AL44" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM44" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN44" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP44" s="2" t="n">
         <v>1</v>
@@ -5562,45 +5631,45 @@
         <v>1</v>
       </c>
       <c r="BC44" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ44" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL44" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q45" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U45" s="2" t="n">
         <v>6</v>
@@ -5609,25 +5678,25 @@
         <v>1</v>
       </c>
       <c r="AD45" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG45" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI45" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK45" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM45" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN45" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP45" s="2" t="n">
         <v>1</v>
@@ -5642,48 +5711,48 @@
         <v>3</v>
       </c>
       <c r="AY45" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BA45" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ45" s="2" t="n">
+      <c r="BL45" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U46" s="2" t="n">
         <v>6</v>
@@ -5692,25 +5761,25 @@
         <v>1</v>
       </c>
       <c r="AD46" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG46" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI46" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ46" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK46" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM46" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN46" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP46" s="2" t="n">
         <v>1</v>
@@ -5737,42 +5806,42 @@
         <v>1</v>
       </c>
       <c r="BC46" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ46" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL46" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q47" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U47" s="2" t="n">
         <v>4</v>
@@ -5781,25 +5850,25 @@
         <v>1</v>
       </c>
       <c r="AD47" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG47" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI47" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK47" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM47" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN47" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ47" s="2" t="n">
         <v>1</v>
@@ -5816,37 +5885,37 @@
       <c r="BA47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ47" s="2" t="n">
+      <c r="BL47" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U48" s="2" t="n">
         <v>4</v>
@@ -5855,34 +5924,34 @@
         <v>1</v>
       </c>
       <c r="AB48" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC48" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD48" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE48" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG48" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI48" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ48" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK48" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM48" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN48" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ48" s="2" t="n">
         <v>2</v>
@@ -5900,89 +5969,89 @@
         <v>4</v>
       </c>
       <c r="BC48" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ48" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL48" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="O49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q49" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R49" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U49" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W49" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD49" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE49" s="0"/>
       <c r="AF49" s="0"/>
       <c r="AG49" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI49" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK49" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="AL49" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM49" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN49" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP49" s="2" t="n">
         <v>1</v>
@@ -6009,87 +6078,87 @@
         <v>1</v>
       </c>
       <c r="BC49" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH49" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ49" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BJ49" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL49" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q50" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R50" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T50" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U50" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W50" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD50" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG50" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI50" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ50" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK50" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL50" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM50" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN50" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP50" s="2" t="n">
         <v>1</v>
@@ -6116,78 +6185,78 @@
         <v>1</v>
       </c>
       <c r="BC50" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ50" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL50" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q51" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R51" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U51" s="2" t="n">
         <v>4</v>
       </c>
       <c r="W51" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB51" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC51" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD51" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE51" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG51" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AK51" s="6" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AL51" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM51" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN51" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ51" s="2" t="n">
         <v>1</v>
@@ -6205,96 +6274,96 @@
         <v>1</v>
       </c>
       <c r="BD51" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BE51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ51" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL51" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E52" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K52" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q52" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R52" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T52" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U52" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W52" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB52" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC52" s="6" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AD52" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG52" s="6" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="AI52" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ52" s="2" t="n">
         <v>4</v>
       </c>
       <c r="AK52" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AL52" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM52" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN52" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO52" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP52" s="2" t="n">
         <v>1</v>
@@ -6315,102 +6384,102 @@
         <v>1</v>
       </c>
       <c r="BD52" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE52" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH52" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ52" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL52" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL52" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM52" s="6" t="s">
-        <v>74</v>
+      <c r="BN52" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO52" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I53" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q53" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R53" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U53" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W53" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD53" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE53" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG53" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AH53" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AI53" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK53" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL53" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM53" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN53" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO53" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ53" s="2" t="n">
         <v>1</v>
@@ -6431,108 +6500,108 @@
         <v>1</v>
       </c>
       <c r="BD53" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE53" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ53" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL53" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="BK53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM53" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP53" s="6" t="s">
-        <v>75</v>
+      <c r="BM53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR53" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q54" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R54" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U54" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W54" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD54" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE54" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG54" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AH54" s="6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AI54" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK54" s="6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AL54" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM54" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN54" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AO54" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AQ54" s="2" t="n">
         <v>1</v>
@@ -6553,108 +6622,108 @@
         <v>1</v>
       </c>
       <c r="BE54" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ54" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="BK54" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM54" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP54" s="6" t="s">
-        <v>75</v>
+      <c r="BM54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR54" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q55" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R55" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U55" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W55" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB55" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC55" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD55" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG55" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI55" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK55" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL55" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM55" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN55" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO55" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ55" s="2" t="n">
         <v>1</v>
@@ -6675,102 +6744,102 @@
         <v>1</v>
       </c>
       <c r="BD55" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE55" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH55" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ55" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL55" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="BK55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL55" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM55" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP55" s="6" t="s">
-        <v>75</v>
+      <c r="BM55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR55" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I56" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K56" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q56" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R56" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U56" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W56" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD56" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AG56" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI56" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ56" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK56" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL56" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM56" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN56" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AO56" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ56" s="2" t="n">
         <v>1</v>
@@ -6785,95 +6854,95 @@
         <v>1</v>
       </c>
       <c r="BD56" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE56" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ56" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL56" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL56" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM56" s="6" t="s">
-        <v>74</v>
+      <c r="BN56" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO56" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K57" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="N57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q57" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R57" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U57" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W57" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD57" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE57" s="0"/>
       <c r="AF57" s="0"/>
       <c r="AG57" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI57" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK57" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL57" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM57" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN57" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP57" s="2" t="n">
         <v>1</v>
@@ -6891,93 +6960,93 @@
         <v>1</v>
       </c>
       <c r="BD57" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="BE57" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ57" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="BJ57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL57" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL57" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM57" s="6" t="s">
-        <v>74</v>
+      <c r="BN57" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO57" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K58" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q58" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R58" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U58" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W58" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD58" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG58" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI58" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK58" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AL58" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM58" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN58" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AQ58" s="2" t="n">
         <v>1</v>
@@ -6998,96 +7067,96 @@
         <v>1</v>
       </c>
       <c r="BC58" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BH58" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ58" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BJ58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL58" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="BL58" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BM58" s="6" t="s">
-        <v>74</v>
+      <c r="BN58" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BO58" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K59" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q59" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R59" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U59" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W59" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD59" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG59" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI59" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK59" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL59" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM59" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN59" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AO59" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP59" s="2" t="n">
         <v>1</v>
@@ -7114,75 +7183,75 @@
         <v>1</v>
       </c>
       <c r="BC59" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ59" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL59" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K60" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q60" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U60" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W60" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD60" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG60" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI60" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK60" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM60" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN60" s="6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AP60" s="2" t="n">
         <v>1</v>
@@ -7206,75 +7275,75 @@
         <v>1</v>
       </c>
       <c r="BC60" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ60" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL60" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E61" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q61" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U61" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W61" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD61" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG61" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI61" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK61" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM61" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN61" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ61" s="2" t="n">
         <v>1</v>
@@ -7292,72 +7361,72 @@
         <v>1</v>
       </c>
       <c r="BC61" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ61" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL61" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q62" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U62" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W62" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD62" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG62" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="AI62" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AJ62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AK62" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AM62" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN62" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP62" s="2" t="n">
         <v>1</v>
@@ -7380,76 +7449,76 @@
       <c r="BB62" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="BJ62" s="2" t="n">
+      <c r="BL62" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E63" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I63" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q63" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R63" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U63" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W63" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD63" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG63" s="6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="AI63" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK63" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL63" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AM63" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AN63" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AP63" s="2" t="n">
         <v>1</v>
@@ -7473,78 +7542,78 @@
         <v>1</v>
       </c>
       <c r="BC63" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ63" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL63" s="2" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q64" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U64" s="2" t="n">
         <v>4</v>
       </c>
       <c r="W64" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AA64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB64" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AC64" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AD64" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE64" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG64" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AK64" s="6" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL64" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AM64" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AN64" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AQ64" s="2" t="n">
         <v>2</v>
@@ -7562,45 +7631,45 @@
         <v>1</v>
       </c>
       <c r="BD64" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BE64" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ64" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL64" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E65" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N65" s="2" t="n">
         <v>1</v>
@@ -7612,16 +7681,16 @@
         <v>1</v>
       </c>
       <c r="Q65" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R65" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S65" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U65" s="2" t="n">
         <v>6</v>
@@ -7630,49 +7699,49 @@
         <v>1</v>
       </c>
       <c r="W65" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X65" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AA65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AB65" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AC65" s="6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AD65" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AE65" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF65" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG65" s="6" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AH65" s="6" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AI65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AK65" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL65" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM65" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="AL65" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AM65" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="AN65" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="AT65" s="2" t="n">
         <v>3</v>
@@ -7687,48 +7756,51 @@
         <v>1</v>
       </c>
       <c r="BF65" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="BG65" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BJ65" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="BL65" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="BL65" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BP65" s="6" t="s">
-        <v>108</v>
+      <c r="BN65" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BR65" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>205</v>
+        <v>207</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>97</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K66" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="N66" s="2" t="n">
         <v>1</v>
@@ -7737,60 +7809,632 @@
         <v>1</v>
       </c>
       <c r="Q66" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R66" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="U66" s="2" t="n">
         <v>6</v>
       </c>
       <c r="W66" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="X66" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="AA66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AD66" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AG66" s="6" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AI66" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
+      </c>
+      <c r="AJ66" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK66" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL66" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM66" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN66" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC66" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL66" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN66" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D67" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="E67" s="0"/>
+        <v>217</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W67" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X67" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB67" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC67" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD67" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG67" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK67" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL67" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM67" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN67" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI67" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL67" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN67" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
-    <row r="68" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R68" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U68" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W68" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X68" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG68" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK68" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL68" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM68" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN68" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC68" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL68" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN68" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="69" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D69" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W69" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG69" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK69" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AM69" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN69" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU69" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC69" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL69" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BN69" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="D70" s="6" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R70" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U70" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="W70" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X70" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB70" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD70" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG70" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI70" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AK70" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM70" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN70" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO70" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU70" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC70" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL70" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN70" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="N71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="W71" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD71" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG71" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ71" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK71" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL71" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN71" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AQ71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU71" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL71" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B72" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B73" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B74" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B75" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B76" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B77" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B78" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:BJ67"/>
+  <autoFilter ref="A1:BL67"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7800,4 +8444,30 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.01"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1513" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1580" uniqueCount="230">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -733,6 +733,15 @@
   </si>
   <si>
     <t xml:space="preserve">2/ 4500(O.C.)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 Gaming Pro Carbon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H370 Gaming Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B360 Gaming Pro Carbon</t>
   </si>
   <si>
     <t xml:space="preserve">Arsenal Gaming</t>
@@ -996,7 +1005,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1043,6 +1052,10 @@
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1142,12 +1155,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BR78"/>
+  <dimension ref="A1:BR79"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="S1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="S1" activeCellId="0" sqref="S1"/>
-      <selection pane="bottomLeft" activeCell="U71" activeCellId="0" sqref="U71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="AZ1" activeCellId="0" sqref="AZ1"/>
+      <selection pane="bottomLeft" activeCell="BL74" activeCellId="0" sqref="BL74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8331,6 +8344,9 @@
       <c r="Q71" s="6" t="s">
         <v>88</v>
       </c>
+      <c r="U71" s="2" t="n">
+        <v>4</v>
+      </c>
       <c r="W71" s="7" t="s">
         <v>100</v>
       </c>
@@ -8393,29 +8409,318 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="6" t="s">
+        <v>225</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="C72" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K72" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R72" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U72" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="W72" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="X72" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG72" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ72" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK72" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL72" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN72" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AO72" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW72" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL72" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN72" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="6" t="s">
+        <v>226</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="C73" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="W73" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG73" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="AI73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ73" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK73" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL73" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM73" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN73" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="AP73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU73" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BJ73" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL73" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN73" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="C74" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="D74" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K74" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="R74" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="U74" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="AG74" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ74" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK74" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AL74" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM74" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN74" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="AO74" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AQ74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BH74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BI74" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL74" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BN74" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="12"/>
       <c r="B75" s="6" t="s">
         <v>206</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8431,6 +8736,14 @@
     <row r="78" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D79" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2042" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="270">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -856,6 +856,18 @@
   </si>
   <si>
     <t xml:space="preserve">H310M PRO-VH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-VL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310M PRO-D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H310I PRO</t>
   </si>
 </sst>
 </file>
@@ -1264,7 +1276,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="B83" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="L95" activeCellId="0" sqref="L95"/>
+      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10338,7 +10350,7 @@
       <c r="G91" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="6" t="s">
+      <c r="L91" s="6" t="s">
         <v>254</v>
       </c>
       <c r="U91" s="2" t="n">
@@ -11017,10 +11029,55 @@
         <v>77</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="U100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD100" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG100" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ100" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK100" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM100" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN100" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AQ100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM100" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A101" s="6" t="s">
+        <v>266</v>
+      </c>
       <c r="B101" s="6" t="s">
         <v>207</v>
       </c>
@@ -11030,8 +11087,65 @@
       <c r="D101" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="E101" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L101" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD101" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG101" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI101" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ101" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK101" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM101" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN101" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU101" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA101" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM101" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A102" s="6" t="s">
+        <v>267</v>
+      </c>
       <c r="B102" s="6" t="s">
         <v>207</v>
       </c>
@@ -11041,8 +11155,68 @@
       <c r="D102" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="E102" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L102" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U102" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD102" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG102" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI102" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ102" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK102" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM102" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN102" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU102" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY102" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AZ102" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA102" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM102" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A103" s="6" t="s">
+        <v>268</v>
+      </c>
       <c r="B103" s="6" t="s">
         <v>207</v>
       </c>
@@ -11052,8 +11226,62 @@
       <c r="D103" s="6" t="s">
         <v>249</v>
       </c>
+      <c r="E103" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="U103" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD103" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG103" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI103" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ103" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK103" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM103" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN103" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU103" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA103" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM103" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A104" s="6" t="s">
+        <v>269</v>
+      </c>
       <c r="B104" s="6" t="s">
         <v>207</v>
       </c>
@@ -11062,6 +11290,63 @@
       </c>
       <c r="D104" s="6" t="s">
         <v>249</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G104" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="T104" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U104" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AD104" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG104" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI104" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ104" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK104" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM104" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN104" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="AP104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT104" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU104" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM104" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/mb1.xlsx
+++ b/mb1.xlsx
@@ -10,6 +10,7 @@
   <sheets>
     <sheet name="intel" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="amd" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="test_table" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">intel!$A$1:$BM$67</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2095" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2106" uniqueCount="273">
   <si>
     <t xml:space="preserve">Product Name</t>
   </si>
@@ -868,6 +869,15 @@
   </si>
   <si>
     <t xml:space="preserve">H310I PRO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resault</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1135,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1172,6 +1182,10 @@
     </xf>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1271,12 +1285,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:BS104"/>
+  <dimension ref="A1:AMJ104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B83" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A104" activeCellId="0" sqref="A104"/>
+      <selection pane="bottomLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1325,7 +1339,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="66" min="66" style="2" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="1" width="12.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="68" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="72" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="72" style="1" width="11.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.01"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1542,6 +1557,7 @@
       <c r="BS1" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -11386,4 +11402,101 @@
     <oddFooter>&amp;C&amp;"Arial,標準"頁 &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.01"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="12" t="str">
+        <f aca="false">IF(LEFT(B2, 1)="a","Asus", IF(LEFT(B2, 1)="g", "Gigabyte", IF(LEFT(B2, 1)="m", "Msi", "ERROR")))</f>
+        <v>Asus</v>
+      </c>
+      <c r="C3" s="0" t="str">
+        <f aca="false">IF(LEFT(C2, 3)="H31","H310", IF(LEFT(C2, 3)="H37", "H370", IF(LEFT(C2, 2)="B3", "B360",  IF(LEFT(C2, 2)="z3", "Z370", "ERROR"))))</f>
+        <v>B360</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Arial,標準"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,標準"頁 &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>